--- a/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MergeSort</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>QuickSort</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ModQuickSort</t>
         </is>
@@ -462,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>4.02535169073515</v>
@@ -471,18 +476,21 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D2" t="n">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="E2" t="n">
         <v>2.833213344056216</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3.332204510175204</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2.564949357461537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>5.480638923341991</v>
@@ -491,18 +499,21 @@
         <v>3.80666248977032</v>
       </c>
       <c r="D3" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="E3" t="n">
         <v>3.80666248977032</v>
       </c>
-      <c r="E3" t="n">
-        <v>4.787491742782046</v>
-      </c>
       <c r="F3" t="n">
-        <v>3.637586159726386</v>
+        <v>4.709530201312334</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.663561646129646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>6.899723107284872</v>
@@ -511,18 +522,21 @@
         <v>4.532599493153256</v>
       </c>
       <c r="D4" t="n">
+        <v>3.465735902799727</v>
+      </c>
+      <c r="E4" t="n">
         <v>4.691347882229143</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.206575926724928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.634728988229636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>8.302017809751204</v>
@@ -531,18 +545,21 @@
         <v>5.241747015059643</v>
       </c>
       <c r="D5" t="n">
+        <v>4.158883083359671</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.53338948872752</v>
       </c>
-      <c r="E5" t="n">
-        <v>7.580189417944541</v>
-      </c>
       <c r="F5" t="n">
+        <v>7.564757012905729</v>
+      </c>
+      <c r="G5" t="n">
         <v>5.579729825986222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>9.696217350378209</v>
@@ -551,18 +568,21 @@
         <v>5.942799375126701</v>
       </c>
       <c r="D6" t="n">
+        <v>4.852030263919617</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.35088571671474</v>
       </c>
-      <c r="E6" t="n">
-        <v>8.915297945118109</v>
-      </c>
       <c r="F6" t="n">
+        <v>8.946374826141717</v>
+      </c>
+      <c r="G6" t="n">
         <v>6.483107351457199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>11.08644098963799</v>
@@ -571,73 +591,85 @@
         <v>6.639875833826536</v>
       </c>
       <c r="D7" t="n">
+        <v>5.545177444479562</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.152268856032539</v>
       </c>
-      <c r="E7" t="n">
-        <v>10.29150126703054</v>
-      </c>
       <c r="F7" t="n">
-        <v>7.353081920515432</v>
+        <v>10.2588165911505</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.354362330421477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>512</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.47469421524321</v>
+        <v>12.47273918040741</v>
       </c>
       <c r="C8" t="n">
         <v>7.334981878871814</v>
       </c>
       <c r="D8" t="n">
+        <v>6.238324625039508</v>
+      </c>
+      <c r="E8" t="n">
         <v>7.942006808489857</v>
       </c>
-      <c r="E8" t="n">
-        <v>11.5307555598676</v>
-      </c>
       <c r="F8" t="n">
-        <v>8.202208436436448</v>
+        <v>11.53076538309856</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.206583614320753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.86196657155108</v>
+        <v>13.85903258411629</v>
       </c>
       <c r="C9" t="n">
         <v>8.029107054619736</v>
       </c>
       <c r="D9" t="n">
+        <v>6.931471805599453</v>
+      </c>
+      <c r="E9" t="n">
         <v>8.722742874329398</v>
       </c>
-      <c r="E9" t="n">
-        <v>12.72815269993649</v>
-      </c>
       <c r="F9" t="n">
-        <v>9.036582045842716</v>
+        <v>12.72817346470284</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.037652264150466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2048</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>15.24777253217286</v>
+        <v>15.24826117132258</v>
       </c>
       <c r="C10" t="n">
         <v>8.722742874329398</v>
       </c>
       <c r="D10" t="n">
-        <v>9.496195777086555</v>
+        <v>7.624618986159398</v>
       </c>
       <c r="E10" t="n">
-        <v>13.72543813712021</v>
+        <v>9.496120637138368</v>
       </c>
       <c r="F10" t="n">
-        <v>9.865058525916346</v>
+        <v>13.67853896892972</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.866304761408411</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4.02535169073515</v>
+        <v>3.891820298110626</v>
       </c>
       <c r="C2" t="n">
         <v>3.044522437723423</v>
@@ -482,10 +482,10 @@
         <v>2.833213344056216</v>
       </c>
       <c r="F2" t="n">
-        <v>3.332204510175204</v>
+        <v>3.13549421592915</v>
       </c>
       <c r="G2" t="n">
-        <v>2.564949357461537</v>
+        <v>2.639057329615258</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="F3" t="n">
-        <v>4.709530201312334</v>
+        <v>4.477336814478207</v>
       </c>
       <c r="G3" t="n">
         <v>3.663561646129646</v>
@@ -528,10 +528,10 @@
         <v>4.691347882229143</v>
       </c>
       <c r="F4" t="n">
-        <v>6.206575926724928</v>
+        <v>5.723585101952381</v>
       </c>
       <c r="G4" t="n">
-        <v>4.634728988229636</v>
+        <v>4.74493212836325</v>
       </c>
     </row>
     <row r="5">
@@ -551,10 +551,10 @@
         <v>5.53338948872752</v>
       </c>
       <c r="F5" t="n">
-        <v>7.564757012905729</v>
+        <v>7.189167738420323</v>
       </c>
       <c r="G5" t="n">
-        <v>5.579729825986222</v>
+        <v>5.62040086571715</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>9.696217350378209</v>
+        <v>9.664468652063627</v>
       </c>
       <c r="C6" t="n">
         <v>5.942799375126701</v>
@@ -574,10 +574,10 @@
         <v>6.35088571671474</v>
       </c>
       <c r="F6" t="n">
-        <v>8.946374826141717</v>
+        <v>8.386628821395121</v>
       </c>
       <c r="G6" t="n">
-        <v>6.483107351457199</v>
+        <v>6.513230110912307</v>
       </c>
     </row>
     <row r="7">
@@ -597,10 +597,10 @@
         <v>7.152268856032539</v>
       </c>
       <c r="F7" t="n">
-        <v>10.2588165911505</v>
+        <v>9.921180112067047</v>
       </c>
       <c r="G7" t="n">
-        <v>7.354362330421477</v>
+        <v>7.377133712833954</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.47273918040741</v>
+        <v>12.47469421524321</v>
       </c>
       <c r="C8" t="n">
         <v>7.334981878871814</v>
@@ -620,10 +620,10 @@
         <v>7.942006808489857</v>
       </c>
       <c r="F8" t="n">
-        <v>11.53076538309856</v>
+        <v>11.37859375217494</v>
       </c>
       <c r="G8" t="n">
-        <v>8.206583614320753</v>
+        <v>8.215276958936633</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.85903258411629</v>
+        <v>13.86196657155108</v>
       </c>
       <c r="C9" t="n">
         <v>8.029107054619736</v>
@@ -643,10 +643,10 @@
         <v>8.722742874329398</v>
       </c>
       <c r="F9" t="n">
-        <v>12.72817346470284</v>
+        <v>12.72302844133832</v>
       </c>
       <c r="G9" t="n">
-        <v>9.037652264150466</v>
+        <v>9.036225051729327</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>15.24826117132258</v>
+        <v>15.24874957182069</v>
       </c>
       <c r="C10" t="n">
         <v>8.722742874329398</v>
@@ -663,13 +663,13 @@
         <v>7.624618986159398</v>
       </c>
       <c r="E10" t="n">
-        <v>9.496120637138368</v>
+        <v>9.496195777086555</v>
       </c>
       <c r="F10" t="n">
-        <v>13.67853896892972</v>
+        <v>14.09786446089788</v>
       </c>
       <c r="G10" t="n">
-        <v>9.866304761408411</v>
+        <v>9.846440897156853</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
@@ -470,22 +470,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.891820298110626</v>
+        <v>5.807354922057604</v>
       </c>
       <c r="C2" t="n">
-        <v>3.044522437723423</v>
+        <v>4.392317422778761</v>
       </c>
       <c r="D2" t="n">
-        <v>2.079441541679836</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2.833213344056216</v>
+        <v>3.906890595608519</v>
       </c>
       <c r="F2" t="n">
-        <v>3.13549421592915</v>
+        <v>4.584962500721156</v>
       </c>
       <c r="G2" t="n">
-        <v>2.639057329615258</v>
+        <v>3.906890595608519</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5.480638923341991</v>
+        <v>7.60733031374961</v>
       </c>
       <c r="C3" t="n">
-        <v>3.80666248977032</v>
+        <v>5.491853096329675</v>
       </c>
       <c r="D3" t="n">
-        <v>2.772588722239781</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>3.80666248977032</v>
+        <v>5.491853096329675</v>
       </c>
       <c r="F3" t="n">
-        <v>4.477336814478207</v>
+        <v>6.321928094887363</v>
       </c>
       <c r="G3" t="n">
-        <v>3.663561646129646</v>
+        <v>5.554588851677638</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6.899723107284872</v>
+        <v>9.954196310386875</v>
       </c>
       <c r="C4" t="n">
-        <v>4.532599493153256</v>
+        <v>6.539158811108031</v>
       </c>
       <c r="D4" t="n">
-        <v>3.465735902799727</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4.691347882229143</v>
+        <v>6.768184324776926</v>
       </c>
       <c r="F4" t="n">
-        <v>5.723585101952381</v>
+        <v>8.426264754702098</v>
       </c>
       <c r="G4" t="n">
-        <v>4.74493212836325</v>
+        <v>6.727920454563199</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>8.302017809751204</v>
+        <v>11.95455984699983</v>
       </c>
       <c r="C5" t="n">
-        <v>5.241747015059643</v>
+        <v>7.562242424221073</v>
       </c>
       <c r="D5" t="n">
-        <v>4.158883083359671</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>5.53338948872752</v>
+        <v>7.98299357469431</v>
       </c>
       <c r="F5" t="n">
-        <v>7.189167738420323</v>
+        <v>10.319672120947</v>
       </c>
       <c r="G5" t="n">
-        <v>5.62040086571715</v>
+        <v>8.129283016944967</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>9.664468652063627</v>
+        <v>13.98868468677217</v>
       </c>
       <c r="C6" t="n">
-        <v>5.942799375126701</v>
+        <v>8.573647187493322</v>
       </c>
       <c r="D6" t="n">
-        <v>4.852030263919617</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>6.35088571671474</v>
+        <v>9.162391328756906</v>
       </c>
       <c r="F6" t="n">
-        <v>8.386628821395121</v>
+        <v>12.36440828137983</v>
       </c>
       <c r="G6" t="n">
-        <v>6.513230110912307</v>
+        <v>9.385862400641461</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>11.08644098963799</v>
+        <v>15.99435343685886</v>
       </c>
       <c r="C7" t="n">
-        <v>6.639875833826536</v>
+        <v>9.579315937580015</v>
       </c>
       <c r="D7" t="n">
-        <v>5.545177444479562</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>7.152268856032539</v>
+        <v>10.31854280970272</v>
       </c>
       <c r="F7" t="n">
-        <v>9.921180112067047</v>
+        <v>14.42028922221946</v>
       </c>
       <c r="G7" t="n">
-        <v>7.377133712833954</v>
+        <v>10.64024493622235</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.47469421524321</v>
+        <v>17.99717948093762</v>
       </c>
       <c r="C8" t="n">
-        <v>7.334981878871814</v>
+        <v>10.58214198165878</v>
       </c>
       <c r="D8" t="n">
-        <v>6.238324625039508</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>7.942006808489857</v>
+        <v>11.4578938373147</v>
       </c>
       <c r="F8" t="n">
-        <v>11.37859375217494</v>
+        <v>16.31252847604699</v>
       </c>
       <c r="G8" t="n">
-        <v>8.215276958936633</v>
+        <v>11.85875809993542</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.86196657155108</v>
+        <v>19.99859042974533</v>
       </c>
       <c r="C9" t="n">
-        <v>8.029107054619736</v>
+        <v>11.58355293046649</v>
       </c>
       <c r="D9" t="n">
-        <v>6.931471805599453</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8.722742874329398</v>
+        <v>12.58425788774457</v>
       </c>
       <c r="F9" t="n">
-        <v>12.72302844133832</v>
+        <v>18.36970809313529</v>
       </c>
       <c r="G9" t="n">
-        <v>9.036225051729327</v>
+        <v>13.03754695396218</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>15.24874957182069</v>
+        <v>21.99929538702341</v>
       </c>
       <c r="C10" t="n">
-        <v>8.722742874329398</v>
+        <v>12.58425788774457</v>
       </c>
       <c r="D10" t="n">
-        <v>7.624618986159398</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>9.496195777086555</v>
+        <v>13.70011455491349</v>
       </c>
       <c r="F10" t="n">
-        <v>14.09786446089788</v>
+        <v>20.34412899994672</v>
       </c>
       <c r="G10" t="n">
-        <v>9.846440897156853</v>
+        <v>14.20510594263943</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5.807354922057604</v>
+        <v>5.614709844115208</v>
       </c>
       <c r="C2" t="n">
         <v>4.392317422778761</v>
@@ -479,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3.906890595608519</v>
+        <v>4.087462841250339</v>
       </c>
       <c r="F2" t="n">
-        <v>4.584962500721156</v>
+        <v>4.321928094887363</v>
       </c>
       <c r="G2" t="n">
-        <v>3.906890595608519</v>
+        <v>3.807354922057604</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7.60733031374961</v>
+        <v>7.813781191217037</v>
       </c>
       <c r="C3" t="n">
         <v>5.491853096329675</v>
@@ -508,7 +508,7 @@
         <v>6.321928094887363</v>
       </c>
       <c r="G3" t="n">
-        <v>5.554588851677638</v>
+        <v>5.357552004618084</v>
       </c>
     </row>
     <row r="4">
@@ -528,10 +528,10 @@
         <v>6.768184324776926</v>
       </c>
       <c r="F4" t="n">
-        <v>8.426264754702098</v>
+        <v>8.312882955284355</v>
       </c>
       <c r="G4" t="n">
-        <v>6.727920454563199</v>
+        <v>6.78135971352466</v>
       </c>
     </row>
     <row r="5">
@@ -551,10 +551,10 @@
         <v>7.98299357469431</v>
       </c>
       <c r="F5" t="n">
-        <v>10.319672120947</v>
+        <v>10.3297963382207</v>
       </c>
       <c r="G5" t="n">
-        <v>8.129283016944967</v>
+        <v>8.124121311829187</v>
       </c>
     </row>
     <row r="6">
@@ -574,10 +574,10 @@
         <v>9.162391328756906</v>
       </c>
       <c r="F6" t="n">
-        <v>12.36440828137983</v>
+        <v>12.28511318850149</v>
       </c>
       <c r="G6" t="n">
-        <v>9.385862400641461</v>
+        <v>9.39231742277876</v>
       </c>
     </row>
     <row r="7">
@@ -597,10 +597,10 @@
         <v>10.31854280970272</v>
       </c>
       <c r="F7" t="n">
-        <v>14.42028922221946</v>
+        <v>14.41303285326386</v>
       </c>
       <c r="G7" t="n">
-        <v>10.64024493622235</v>
+        <v>10.63843591399047</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>17.99717948093762</v>
+        <v>17.99435896187524</v>
       </c>
       <c r="C8" t="n">
         <v>10.58214198165878</v>
@@ -620,10 +620,10 @@
         <v>11.4578938373147</v>
       </c>
       <c r="F8" t="n">
-        <v>16.31252847604699</v>
+        <v>16.35531668057918</v>
       </c>
       <c r="G8" t="n">
-        <v>11.85875809993542</v>
+        <v>11.852919585124</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>19.99859042974533</v>
+        <v>19.99718085949066</v>
       </c>
       <c r="C9" t="n">
         <v>11.58355293046649</v>
@@ -640,13 +640,13 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>12.58425788774457</v>
+        <v>12.58378795450234</v>
       </c>
       <c r="F9" t="n">
-        <v>18.36970809313529</v>
+        <v>18.32700872412068</v>
       </c>
       <c r="G9" t="n">
-        <v>13.03754695396218</v>
+        <v>13.04046097095658</v>
       </c>
     </row>
     <row r="10">
@@ -666,10 +666,33 @@
         <v>13.70011455491349</v>
       </c>
       <c r="F10" t="n">
-        <v>20.34412899994672</v>
+        <v>20.35105892074899</v>
       </c>
       <c r="G10" t="n">
-        <v>14.20510594263943</v>
+        <v>14.20319503738126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.99964773652837</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.58461023724953</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.80720396253033</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.3174164782476</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.35187094333514</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
@@ -469,230 +469,350 @@
       <c r="A2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>5.614709844115208</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.392317422778761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.087462841250339</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.321928094887363</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.807354922057604</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>7.813781191217037</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.491853096329675</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.491853096329675</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.321928094887363</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.357552004618084</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>9.954196310386875</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.539158811108031</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.768184324776926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.312882955284355</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.78135971352466</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>11.95455984699983</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.562242424221073</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.98299357469431</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.3297963382207</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.124121311829187</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>13.98868468677217</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.573647187493322</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.162391328756906</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12.28511318850149</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.39231742277876</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>15.99435343685886</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.579315937580015</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.31854280970272</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14.41303285326386</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.63843591399047</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>17.99435896187524</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.58214198165878</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.4578938373147</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.35531668057918</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.852919585124</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>19.99718085949066</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.58355293046649</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.58378795450234</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18.32700872412068</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.04046097095658</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>21.99929538702341</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.58425788774457</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.70011455491349</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20.35105892074899</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.20319503738126</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
-        <v>23.99964773652837</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.58461023724953</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.80720396253033</v>
-      </c>
-      <c r="F11" t="n">
-        <v>22.3174164782476</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.35187094333514</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/mostly_sorted_data_comparisons_log.xlsx
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.81</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>5.39</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>6.75</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>8.07</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.39</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.40</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.64</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>13.03</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>20.34</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22.33</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
